--- a/kili-homework-2.xlsx
+++ b/kili-homework-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troubledmuffin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troubledmuffin/murder_scene/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная по одуш-ти" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="901">
   <si>
     <t>Left context</t>
   </si>
@@ -1713,147 +1713,7 @@
     <t>2009 </t>
   </si>
   <si>
-    <t> имитэ с ииненварс В </t>
-  </si>
-  <si>
-    <t>ямувд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  В сравнении с этими </t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>двумя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>западные</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>властители</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> выглядели всего лишь </t>
-    </r>
-  </si>
-  <si>
-    <t>Николай Дежнев. Принцип неопределенности (2009) </t>
-  </si>
-  <si>
-    <t>Николай Дежнев </t>
-  </si>
-  <si>
     <t>1946 </t>
-  </si>
-  <si>
-    <t>Принцип неопределенности </t>
-  </si>
-  <si>
-    <t>Дежнев Николай. Принцип неопределенности </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> В сравнении с этими </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>двумя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>западные</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>властители</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> выглядели всего лишь чопорными и холодными, но и от них ничего хорошего Шепетухе с Ксафоном ждать не приходилось.  [Николай Дежнев. Принцип неопределенности (2009)] [омонимия не снята]</t>
-    </r>
   </si>
   <si>
     <t> етеналп йондо ан ьтавовтсещусос онрим</t>
@@ -11914,7 +11774,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="пользователь Microsoft Office" refreshedDate="43070.077758796295" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="пользователь Microsoft Office" refreshedDate="43070.833413194443" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="99">
   <cacheSource type="worksheet">
     <worksheetSource ref="G1:J1048576" sheet="Результаты поиска"/>
   </cacheSource>
@@ -12423,12 +12283,6 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -12547,6 +12401,12 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -12558,18 +12418,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
@@ -12635,7 +12487,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -12708,7 +12560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -13046,7 +12898,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13065,32 +12917,32 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B4" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C4" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B5" s="13">
         <v>3</v>
@@ -13105,22 +12957,22 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B6" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13">
         <v>55</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -13129,17 +12981,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B8" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13">
         <v>83</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -13152,7 +13004,7 @@
   <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13166,35 +13018,35 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B4" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C4" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="D4" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F4" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B5" s="13">
         <v>4</v>
@@ -13212,25 +13064,23 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B6" s="13">
         <v>65</v>
       </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -13240,20 +13090,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B8" s="13">
         <v>69</v>
       </c>
       <c r="C8" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="13">
         <v>17</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -13266,7 +13116,7 @@
   <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13281,35 +13131,35 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B4" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C4" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="D4" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F4" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B5" s="13">
         <v>27</v>
@@ -13327,10 +13177,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B6" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="13">
         <v>18</v>
@@ -13340,12 +13190,12 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -13355,10 +13205,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B8" s="13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="13">
         <v>21</v>
@@ -13368,7 +13218,7 @@
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -13378,10 +13228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13406,10 +13256,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -13418,69 +13268,69 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>893</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -13489,34 +13339,34 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>9</v>
@@ -13528,10 +13378,10 @@
         <v>11</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>13</v>
@@ -13540,18 +13390,18 @@
         <v>67</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -13560,34 +13410,34 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>9</v>
@@ -13599,10 +13449,10 @@
         <v>11</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>13</v>
@@ -13611,7 +13461,7 @@
         <v>67</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -13631,34 +13481,34 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>9</v>
@@ -13670,10 +13520,10 @@
         <v>11</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>13</v>
@@ -13682,18 +13532,18 @@
         <v>67</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -13702,34 +13552,34 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>9</v>
@@ -13744,7 +13594,7 @@
         <v>15</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>16</v>
@@ -13753,18 +13603,18 @@
         <v>67</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -13773,31 +13623,31 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>36</v>
@@ -13812,7 +13662,7 @@
         <v>11</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>27</v>
@@ -13824,18 +13674,18 @@
         <v>67</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -13844,31 +13694,31 @@
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>12</v>
@@ -13895,18 +13745,18 @@
         <v>67</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
@@ -13915,34 +13765,34 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>9</v>
@@ -13957,7 +13807,7 @@
         <v>124</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>16</v>
@@ -13966,18 +13816,18 @@
         <v>67</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -13986,49 +13836,49 @@
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>13</v>
@@ -14037,18 +13887,18 @@
         <v>67</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
@@ -14057,34 +13907,34 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>9</v>
@@ -14096,10 +13946,10 @@
         <v>11</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>13</v>
@@ -14108,7 +13958,7 @@
         <v>67</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -14131,16 +13981,16 @@
         <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>155</v>
@@ -14184,13 +14034,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -14199,31 +14049,31 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>12</v>
@@ -14250,18 +14100,18 @@
         <v>67</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>4</v>
@@ -14270,34 +14120,34 @@
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>9</v>
@@ -14309,7 +14159,7 @@
         <v>11</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>17</v>
@@ -14321,7 +14171,7 @@
         <v>67</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -14344,16 +14194,16 @@
         <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>105</v>
@@ -14397,49 +14247,49 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>9</v>
@@ -14451,7 +14301,7 @@
         <v>11</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>17</v>
@@ -14463,18 +14313,18 @@
         <v>67</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
@@ -14483,31 +14333,31 @@
         <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>8</v>
@@ -14534,18 +14384,18 @@
         <v>67</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
@@ -14554,34 +14404,34 @@
         <v>5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>9</v>
@@ -14593,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>13</v>
@@ -14605,7 +14455,7 @@
         <v>67</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -14628,16 +14478,16 @@
         <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>77</v>
@@ -14681,13 +14531,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>4</v>
@@ -14696,31 +14546,31 @@
         <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>149</v>
@@ -14735,10 +14585,10 @@
         <v>11</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>13</v>
@@ -14747,18 +14597,18 @@
         <v>67</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -14767,49 +14617,49 @@
         <v>5</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>881</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>13</v>
@@ -14818,18 +14668,18 @@
         <v>67</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>4</v>
@@ -14838,34 +14688,34 @@
         <v>5</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>9</v>
@@ -14877,10 +14727,10 @@
         <v>11</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>13</v>
@@ -14889,18 +14739,18 @@
         <v>67</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>4</v>
@@ -14909,34 +14759,34 @@
         <v>5</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>9</v>
@@ -14960,18 +14810,18 @@
         <v>67</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>64</v>
@@ -14980,34 +14830,34 @@
         <v>5</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>9</v>
@@ -15019,10 +14869,10 @@
         <v>11</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>13</v>
@@ -15031,18 +14881,18 @@
         <v>67</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>21</v>
@@ -15051,31 +14901,31 @@
         <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>161</v>
@@ -15090,7 +14940,7 @@
         <v>11</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
@@ -15102,18 +14952,18 @@
         <v>67</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>64</v>
@@ -15122,34 +14972,34 @@
         <v>5</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>9</v>
@@ -15161,10 +15011,10 @@
         <v>11</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>13</v>
@@ -15173,18 +15023,18 @@
         <v>67</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>64</v>
@@ -15193,31 +15043,31 @@
         <v>5</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>12</v>
@@ -15232,7 +15082,7 @@
         <v>11</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>12</v>
@@ -15244,18 +15094,18 @@
         <v>67</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>64</v>
@@ -15264,31 +15114,31 @@
         <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
@@ -15303,7 +15153,7 @@
         <v>11</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>8</v>
@@ -15315,7 +15165,7 @@
         <v>67</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -15338,16 +15188,16 @@
         <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>32</v>
@@ -15391,13 +15241,13 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>42</v>
@@ -15406,31 +15256,31 @@
         <v>5</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>51</v>
@@ -15445,10 +15295,10 @@
         <v>11</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>13</v>
@@ -15457,7 +15307,7 @@
         <v>67</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -15480,16 +15330,16 @@
         <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>87</v>
@@ -15533,13 +15383,13 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>4</v>
@@ -15548,31 +15398,31 @@
         <v>5</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>149</v>
@@ -15587,7 +15437,7 @@
         <v>11</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>149</v>
@@ -15599,7 +15449,7 @@
         <v>67</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -15622,16 +15472,16 @@
         <v>130</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>131</v>
@@ -15675,13 +15525,13 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>25</v>
@@ -15690,31 +15540,31 @@
         <v>5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>17</v>
@@ -15741,18 +15591,18 @@
         <v>67</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>64</v>
@@ -15761,31 +15611,31 @@
         <v>5</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>40</v>
@@ -15800,7 +15650,7 @@
         <v>11</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>89</v>
@@ -15812,18 +15662,18 @@
         <v>67</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>4</v>
@@ -15832,34 +15682,34 @@
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>9</v>
@@ -15871,10 +15721,10 @@
         <v>11</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>13</v>
@@ -15883,18 +15733,18 @@
         <v>67</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>4</v>
@@ -15903,31 +15753,31 @@
         <v>5</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>149</v>
@@ -15942,7 +15792,7 @@
         <v>11</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>149</v>
@@ -15954,7 +15804,7 @@
         <v>67</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -15974,22 +15824,22 @@
         <v>5</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>162</v>
@@ -15998,7 +15848,7 @@
         <v>163</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>176</v>
@@ -16025,7 +15875,7 @@
         <v>67</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -16048,16 +15898,16 @@
         <v>103</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>97</v>
@@ -16116,31 +15966,31 @@
         <v>5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>149</v>
@@ -16149,13 +15999,13 @@
         <v>9</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>149</v>
@@ -16167,7 +16017,7 @@
         <v>67</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -16187,34 +16037,34 @@
         <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>9</v>
@@ -16226,7 +16076,7 @@
         <v>11</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>176</v>
@@ -16238,18 +16088,18 @@
         <v>67</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>21</v>
@@ -16258,49 +16108,49 @@
         <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
@@ -16309,18 +16159,18 @@
         <v>67</v>
       </c>
       <c r="W41" s="6" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>4</v>
@@ -16329,22 +16179,22 @@
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>95</v>
@@ -16353,7 +16203,7 @@
         <v>112</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>43</v>
@@ -16380,7 +16230,7 @@
         <v>67</v>
       </c>
       <c r="W42" s="6" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -16403,16 +16253,16 @@
         <v>174</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>168</v>
@@ -16456,13 +16306,13 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>4</v>
@@ -16471,31 +16321,31 @@
         <v>5</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>12</v>
@@ -16522,18 +16372,18 @@
         <v>67</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>64</v>
@@ -16542,34 +16392,34 @@
         <v>5</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>9</v>
@@ -16581,10 +16431,10 @@
         <v>11</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>13</v>
@@ -16593,18 +16443,18 @@
         <v>67</v>
       </c>
       <c r="W45" s="6" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>4</v>
@@ -16613,31 +16463,31 @@
         <v>5</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>149</v>
@@ -16652,7 +16502,7 @@
         <v>11</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>149</v>
@@ -16664,18 +16514,18 @@
         <v>67</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>64</v>
@@ -16684,22 +16534,22 @@
         <v>5</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>123</v>
@@ -16708,10 +16558,10 @@
         <v>22</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>9</v>
@@ -16726,7 +16576,7 @@
         <v>124</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
@@ -16735,18 +16585,18 @@
         <v>67</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>4</v>
@@ -16755,49 +16605,49 @@
         <v>5</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>13</v>
@@ -16806,18 +16656,18 @@
         <v>67</v>
       </c>
       <c r="W48" s="6" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>64</v>
@@ -16826,31 +16676,31 @@
         <v>5</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -16865,7 +16715,7 @@
         <v>11</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -16877,18 +16727,18 @@
         <v>67</v>
       </c>
       <c r="W49" s="6" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>4</v>
@@ -16897,31 +16747,31 @@
         <v>5</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>60</v>
@@ -16936,7 +16786,7 @@
         <v>11</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>60</v>
@@ -16948,18 +16798,18 @@
         <v>67</v>
       </c>
       <c r="W50" s="6" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>4</v>
@@ -16968,22 +16818,22 @@
         <v>5</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>6</v>
@@ -16992,7 +16842,7 @@
         <v>7</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>17</v>
@@ -17019,18 +16869,18 @@
         <v>67</v>
       </c>
       <c r="W51" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>4</v>
@@ -17039,31 +16889,31 @@
         <v>5</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>48</v>
@@ -17090,18 +16940,18 @@
         <v>67</v>
       </c>
       <c r="W52" s="6" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>64</v>
@@ -17110,34 +16960,34 @@
         <v>5</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>9</v>
@@ -17149,7 +16999,7 @@
         <v>11</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>8</v>
@@ -17161,18 +17011,18 @@
         <v>67</v>
       </c>
       <c r="W53" s="6" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>4</v>
@@ -17181,34 +17031,34 @@
         <v>5</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>9</v>
@@ -17220,7 +17070,7 @@
         <v>11</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
@@ -17232,18 +17082,18 @@
         <v>67</v>
       </c>
       <c r="W54" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>4</v>
@@ -17252,31 +17102,31 @@
         <v>5</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>176</v>
@@ -17303,18 +17153,18 @@
         <v>67</v>
       </c>
       <c r="W55" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>64</v>
@@ -17323,22 +17173,22 @@
         <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>44</v>
@@ -17347,7 +17197,7 @@
         <v>45</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>89</v>
@@ -17362,7 +17212,7 @@
         <v>11</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>51</v>
@@ -17374,18 +17224,18 @@
         <v>67</v>
       </c>
       <c r="W56" s="6" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>4</v>
@@ -17394,31 +17244,31 @@
         <v>5</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>176</v>
@@ -17433,7 +17283,7 @@
         <v>11</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>176</v>
@@ -17445,18 +17295,18 @@
         <v>67</v>
       </c>
       <c r="W57" s="6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>4</v>
@@ -17465,31 +17315,31 @@
         <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>12</v>
@@ -17504,7 +17354,7 @@
         <v>11</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>12</v>
@@ -17516,18 +17366,18 @@
         <v>67</v>
       </c>
       <c r="W58" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>4</v>
@@ -17536,31 +17386,31 @@
         <v>5</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>149</v>
@@ -17575,7 +17425,7 @@
         <v>11</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>149</v>
@@ -17587,7 +17437,7 @@
         <v>67</v>
       </c>
       <c r="W59" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -17610,16 +17460,16 @@
         <v>140</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>141</v>
@@ -17663,13 +17513,13 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>21</v>
@@ -17678,31 +17528,31 @@
         <v>5</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>12</v>
@@ -17711,13 +17561,13 @@
         <v>9</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>73</v>
@@ -17729,18 +17579,18 @@
         <v>67</v>
       </c>
       <c r="W61" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>64</v>
@@ -17749,31 +17599,31 @@
         <v>5</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -17788,7 +17638,7 @@
         <v>11</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -17800,18 +17650,18 @@
         <v>67</v>
       </c>
       <c r="W62" s="6" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B63" t="s">
         <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>148</v>
@@ -17820,34 +17670,34 @@
         <v>5</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>9</v>
@@ -17871,18 +17721,18 @@
         <v>67</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>21</v>
@@ -17891,31 +17741,31 @@
         <v>5</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>12</v>
@@ -17942,18 +17792,18 @@
         <v>67</v>
       </c>
       <c r="W64" s="6" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>64</v>
@@ -17962,34 +17812,34 @@
         <v>5</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>9</v>
@@ -18004,7 +17854,7 @@
         <v>19</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>16</v>
@@ -18013,18 +17863,18 @@
         <v>67</v>
       </c>
       <c r="W65" s="6" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>4</v>
@@ -18033,31 +17883,31 @@
         <v>5</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>12</v>
@@ -18072,7 +17922,7 @@
         <v>11</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>12</v>
@@ -18084,18 +17934,18 @@
         <v>67</v>
       </c>
       <c r="W66" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>64</v>
@@ -18104,31 +17954,31 @@
         <v>5</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>51</v>
@@ -18155,18 +18005,18 @@
         <v>67</v>
       </c>
       <c r="W67" s="6" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>21</v>
@@ -18175,22 +18025,22 @@
         <v>5</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>165</v>
@@ -18199,10 +18049,10 @@
         <v>68</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>9</v>
@@ -18217,7 +18067,7 @@
         <v>127</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>16</v>
@@ -18226,18 +18076,18 @@
         <v>67</v>
       </c>
       <c r="W68" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
@@ -18246,34 +18096,34 @@
         <v>5</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>9</v>
@@ -18285,10 +18135,10 @@
         <v>11</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="U69" s="3" t="s">
         <v>13</v>
@@ -18297,18 +18147,18 @@
         <v>67</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>25</v>
@@ -18317,31 +18167,31 @@
         <v>5</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>12</v>
@@ -18356,7 +18206,7 @@
         <v>11</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>12</v>
@@ -18368,18 +18218,18 @@
         <v>67</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>64</v>
@@ -18388,34 +18238,34 @@
         <v>5</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>9</v>
@@ -18427,10 +18277,10 @@
         <v>11</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="U71" s="3" t="s">
         <v>13</v>
@@ -18439,18 +18289,18 @@
         <v>67</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>4</v>
@@ -18459,31 +18309,31 @@
         <v>5</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>12</v>
@@ -18498,7 +18348,7 @@
         <v>11</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>12</v>
@@ -18510,18 +18360,18 @@
         <v>67</v>
       </c>
       <c r="W72" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -18530,31 +18380,31 @@
         <v>5</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>149</v>
@@ -18572,7 +18422,7 @@
         <v>127</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="U73" s="3" t="s">
         <v>16</v>
@@ -18581,7 +18431,7 @@
         <v>67</v>
       </c>
       <c r="W73" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
@@ -18601,34 +18451,34 @@
         <v>5</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>9</v>
@@ -18640,7 +18490,7 @@
         <v>11</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>12</v>
@@ -18652,18 +18502,18 @@
         <v>67</v>
       </c>
       <c r="W74" s="6" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>21</v>
@@ -18672,31 +18522,31 @@
         <v>5</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>161</v>
@@ -18705,13 +18555,13 @@
         <v>9</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>43</v>
@@ -18723,18 +18573,18 @@
         <v>67</v>
       </c>
       <c r="W75" s="6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>21</v>
@@ -18743,31 +18593,31 @@
         <v>5</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>12</v>
@@ -18794,18 +18644,18 @@
         <v>67</v>
       </c>
       <c r="W76" s="6" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>4</v>
@@ -18814,34 +18664,34 @@
         <v>5</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>9</v>
@@ -18853,7 +18703,7 @@
         <v>11</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>12</v>
@@ -18865,18 +18715,18 @@
         <v>67</v>
       </c>
       <c r="W77" s="6" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B78" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>64</v>
@@ -18885,22 +18735,22 @@
         <v>5</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>11</v>
@@ -18909,16 +18759,16 @@
         <v>11</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>11</v>
@@ -18930,60 +18780,60 @@
         <v>11</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="V78" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W78" s="6" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>701</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>179</v>
+        <v>702</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>181</v>
+        <v>703</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>182</v>
+        <v>698</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>183</v>
+        <v>517</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>185</v>
+        <v>699</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>9</v>
@@ -18995,10 +18845,10 @@
         <v>11</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>186</v>
+        <v>700</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="U79" s="3" t="s">
         <v>13</v>
@@ -19007,18 +18857,18 @@
         <v>67</v>
       </c>
       <c r="W79" s="6" t="s">
-        <v>187</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>711</v>
+        <v>785</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>4</v>
@@ -19027,49 +18877,49 @@
         <v>5</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>708</v>
+        <v>782</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>527</v>
+        <v>732</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>709</v>
+        <v>783</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>18</v>
+        <v>471</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>710</v>
+        <v>784</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U80" s="3" t="s">
         <v>13</v>
@@ -19078,18 +18928,18 @@
         <v>67</v>
       </c>
       <c r="W80" s="6" t="s">
-        <v>714</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>795</v>
+        <v>685</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>796</v>
+        <v>686</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>4</v>
@@ -19098,46 +18948,46 @@
         <v>5</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>797</v>
+        <v>687</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>792</v>
+        <v>682</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>742</v>
+        <v>474</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>793</v>
+        <v>683</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>481</v>
+        <v>18</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>794</v>
+        <v>684</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>8</v>
@@ -19149,140 +18999,140 @@
         <v>67</v>
       </c>
       <c r="W81" s="6" t="s">
-        <v>798</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>695</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>696</v>
+        <v>513</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>697</v>
+        <v>514</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>692</v>
+        <v>508</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>693</v>
+        <v>510</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>694</v>
+        <v>124</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V82" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W82" s="6" t="s">
-        <v>698</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>519</v>
+        <v>347</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>521</v>
+        <v>12</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
@@ -19291,160 +19141,160 @@
         <v>67</v>
       </c>
       <c r="W83" s="6" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>462</v>
+        <v>254</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>458</v>
+        <v>247</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>459</v>
+        <v>249</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="V84" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W84" s="6" t="s">
-        <v>463</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>257</v>
+        <v>398</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="V85" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>405</v>
+        <v>778</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>406</v>
+        <v>779</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>4</v>
@@ -19453,69 +19303,69 @@
         <v>5</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>407</v>
+        <v>780</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>408</v>
+        <v>776</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>409</v>
+        <v>774</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>410</v>
+        <v>777</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>124</v>
+        <v>775</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V86" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W86" s="6" t="s">
-        <v>411</v>
+        <v>781</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>788</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>789</v>
+        <v>561</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>4</v>
@@ -19524,49 +19374,49 @@
         <v>5</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>790</v>
+        <v>562</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>786</v>
+        <v>556</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>784</v>
+        <v>93</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>787</v>
+        <v>557</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>50</v>
+        <v>558</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>785</v>
+        <v>559</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="U87" s="3" t="s">
         <v>13</v>
@@ -19575,69 +19425,69 @@
         <v>67</v>
       </c>
       <c r="W87" s="6" t="s">
-        <v>791</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>570</v>
+        <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>571</v>
+        <v>342</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>572</v>
+        <v>343</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>566</v>
+        <v>344</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>567</v>
+        <v>345</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>558</v>
+        <v>292</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>568</v>
+        <v>28</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>569</v>
+        <v>340</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="U88" s="3" t="s">
         <v>13</v>
@@ -19646,69 +19496,69 @@
         <v>67</v>
       </c>
       <c r="W88" s="6" t="s">
-        <v>573</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>13</v>
@@ -19717,54 +19567,54 @@
         <v>67</v>
       </c>
       <c r="W89" s="6" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>417</v>
+        <v>802</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>418</v>
+        <v>803</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>419</v>
+        <v>804</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>413</v>
+        <v>798</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>414</v>
+        <v>799</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>415</v>
+        <v>800</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>9</v>
@@ -19776,10 +19626,10 @@
         <v>11</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>416</v>
+        <v>801</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="U90" s="3" t="s">
         <v>13</v>
@@ -19788,69 +19638,69 @@
         <v>67</v>
       </c>
       <c r="W90" s="6" t="s">
-        <v>420</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>812</v>
+        <v>719</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>813</v>
+        <v>720</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>814</v>
+        <v>721</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>809</v>
+        <v>609</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>810</v>
+        <v>723</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>811</v>
+        <v>11</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>13</v>
@@ -19859,69 +19709,69 @@
         <v>67</v>
       </c>
       <c r="W91" s="6" t="s">
-        <v>815</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>729</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>730</v>
+        <v>72</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>619</v>
+        <v>752</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>89</v>
+        <v>742</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>11</v>
+        <v>754</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>11</v>
+        <v>742</v>
       </c>
       <c r="U92" s="3" t="s">
         <v>13</v>
@@ -19930,54 +19780,54 @@
         <v>67</v>
       </c>
       <c r="W92" s="6" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>813</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>72</v>
+        <v>814</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>761</v>
+        <v>816</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>762</v>
+        <v>696</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>752</v>
+        <v>818</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>9</v>
@@ -19989,10 +19839,10 @@
         <v>11</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>752</v>
+        <v>51</v>
       </c>
       <c r="U93" s="3" t="s">
         <v>13</v>
@@ -20001,54 +19851,54 @@
         <v>67</v>
       </c>
       <c r="W93" s="6" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>823</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>824</v>
+        <v>324</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>825</v>
+        <v>325</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>826</v>
+        <v>326</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>706</v>
+        <v>322</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>827</v>
+        <v>327</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>828</v>
+        <v>292</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>9</v>
@@ -20060,81 +19910,81 @@
         <v>11</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>707</v>
+        <v>15</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>67</v>
       </c>
       <c r="W94" s="6" t="s">
-        <v>829</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>335</v>
+        <v>613</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>336</v>
+        <v>614</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>332</v>
+        <v>615</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>337</v>
+        <v>616</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>15</v>
+        <v>617</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="U95" s="3" t="s">
         <v>16</v>
@@ -20143,54 +19993,54 @@
         <v>67</v>
       </c>
       <c r="W95" s="6" t="s">
-        <v>338</v>
+        <v>618</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>623</v>
+        <v>115</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>624</v>
+        <v>116</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>625</v>
+        <v>117</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>626</v>
+        <v>118</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>9</v>
@@ -20202,10 +20052,10 @@
         <v>11</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>627</v>
+        <v>81</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="U96" s="3" t="s">
         <v>16</v>
@@ -20214,69 +20064,69 @@
         <v>67</v>
       </c>
       <c r="W96" s="6" t="s">
-        <v>628</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>116</v>
+        <v>456</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="U97" s="3" t="s">
         <v>16</v>
@@ -20285,148 +20135,77 @@
         <v>67</v>
       </c>
       <c r="W97" s="6" t="s">
-        <v>119</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>470</v>
+        <v>53</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>466</v>
+        <v>55</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>467</v>
+        <v>56</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>468</v>
+        <v>58</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="W98" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T99" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W99" s="6" t="s">
         <v>61</v>
       </c>
     </row>

--- a/kili-homework-2.xlsx
+++ b/kili-homework-2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная по одуш-ти" sheetId="3" r:id="rId1"/>
     <sheet name="Сводная по роду" sheetId="4" r:id="rId2"/>
     <sheet name="Сводная по Num" sheetId="5" r:id="rId3"/>
-    <sheet name="Результаты поиска" sheetId="1" r:id="rId4"/>
+    <sheet name="Сводная одуш и род" sheetId="6" r:id="rId4"/>
+    <sheet name="Результаты поиска" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="28" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="901">
   <si>
     <t>Left context</t>
   </si>
@@ -11722,7 +11723,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -11751,6 +11752,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
@@ -12418,7 +12422,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -12487,7 +12491,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -12560,7 +12564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -12622,6 +12626,102 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Количество из Num" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество из ANIM/INAN" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12897,7 +12997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13228,10 +13328,195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D4" t="s">
+        <v>895</v>
+      </c>
+      <c r="E4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="B9" s="13">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B10" s="13">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="B14" s="13">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13">
+        <v>83</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
